--- a/صيدليات دكتور مصطفي طلعت_2026-01-04_21-10.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-04_21-10.xlsx
@@ -59,6 +59,9 @@
     <t>4:1</t>
   </si>
   <si>
+    <t>AMARYL 2 MG 30 TABS</t>
+  </si>
+  <si>
     <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -89,6 +92,18 @@
     <t>2:1</t>
   </si>
   <si>
+    <t>BIONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>BLADOGRA XR 50MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>CAPIXY LASH SERUM</t>
   </si>
   <si>
@@ -113,15 +128,15 @@
     <t>CIPALAFIL 5MG 30 TABS.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>CLAVIMOX 642.9MG/5ML PD. FOR ORAL SUSP. 70ML</t>
   </si>
   <si>
     <t>CLINDASOL 0.3GM/30ML TOPICAL SOLUTION 30 ML</t>
   </si>
   <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
     <t>COLOVERIN SR 200MG 30 CAPSULES</t>
   </si>
   <si>
@@ -146,6 +161,12 @@
     <t>5:2</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE INAD PHARMA 3 AMP</t>
   </si>
   <si>
@@ -227,7 +248,7 @@
     <t>FLECTOR 50MG 30 CAPS</t>
   </si>
   <si>
-    <t>0:2</t>
+    <t>FLOPADEX 8 MG 30 CAPSULES</t>
   </si>
   <si>
     <t>FLUMOX 500MG 16 CAPS</t>
@@ -281,6 +302,9 @@
     <t>LUBRIVISC 0.1% EYE DROPS 10 ML</t>
   </si>
   <si>
+    <t>MAVILOR 5MG 30 TAB.</t>
+  </si>
+  <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -296,6 +320,9 @@
     <t>MILGA 40 TABLETS</t>
   </si>
   <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
     <t>NAPIZOLE 40 MG VIAL</t>
   </si>
   <si>
@@ -374,6 +401,9 @@
     <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
   </si>
   <si>
+    <t>SOLITRACT 5 MG 30 F.C. TAB.</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -413,6 +443,9 @@
     <t>URIBLADON 25 MG XR TAB</t>
   </si>
   <si>
+    <t xml:space="preserve">URINEX 36 CAP </t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -437,6 +470,9 @@
     <t>X-TENSION PLUS 150/12.5MG 28 SCORED TAB.</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
   </si>
   <si>
@@ -476,10 +512,13 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>-5:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
     <t>-1:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -1244,13 +1283,13 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="10">
@@ -1262,7 +1301,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1270,17 +1309,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -1288,7 +1327,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1296,17 +1335,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1314,7 +1353,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1322,17 +1361,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="10">
-        <v>0.17000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1348,17 +1387,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1374,17 +1413,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1392,7 +1431,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1400,13 +1439,13 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>450</v>
+        <v>78</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="10">
@@ -1432,7 +1471,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="10">
@@ -1452,13 +1491,13 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>86</v>
+        <v>357</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="10">
@@ -1470,7 +1509,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1478,13 +1517,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>13</v>
+        <v>450</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="10">
@@ -1504,13 +1543,13 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="10">
@@ -1522,7 +1561,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1530,17 +1569,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1556,13 +1595,13 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="10">
@@ -1574,7 +1613,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1582,13 +1621,13 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="10">
@@ -1600,7 +1639,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1608,13 +1647,13 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="10">
@@ -1626,7 +1665,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1634,13 +1673,13 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="10">
@@ -1652,7 +1691,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1660,13 +1699,13 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="10">
@@ -1686,17 +1725,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>41</v>
+        <v>199.5</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1712,13 +1751,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>47.5</v>
+        <v>21</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="10">
@@ -1738,13 +1777,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10">
@@ -1756,7 +1795,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1764,17 +1803,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>82.920000000000002</v>
+        <v>33</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="10">
-        <v>2.3300000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1782,7 +1821,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1790,17 +1829,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10">
-        <v>0.20000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1808,7 +1847,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1816,13 +1855,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>17</v>
+        <v>47.5</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="10">
@@ -1834,7 +1873,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1842,13 +1881,13 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="10">
@@ -1860,7 +1899,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1868,17 +1907,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
-        <v>0.20000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1886,7 +1925,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1894,17 +1933,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>42</v>
+        <v>82.920000000000002</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
-        <v>1</v>
+        <v>2.3300000000000001</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1926,11 +1965,11 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
-        <v>0.66000000000000003</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1946,17 +1985,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1978,7 +2017,7 @@
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
@@ -1998,17 +2037,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
-        <v>1</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -2016,7 +2055,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -2024,13 +2063,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="10">
@@ -2042,7 +2081,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -2050,17 +2089,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="10">
-        <v>2</v>
+        <v>0.66000000000000003</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -2068,7 +2107,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -2076,13 +2115,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10">
@@ -2094,7 +2133,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -2102,13 +2141,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
@@ -2120,7 +2159,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -2128,13 +2167,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10">
@@ -2146,7 +2185,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -2154,17 +2193,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2172,7 +2211,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2180,17 +2219,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>169.19999999999999</v>
+        <v>120</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2198,7 +2237,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2206,13 +2245,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="10">
@@ -2224,7 +2263,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2232,13 +2271,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="10">
@@ -2250,7 +2289,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2258,13 +2297,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>25.739999999999998</v>
+        <v>72</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="10">
@@ -2276,7 +2315,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2284,17 +2323,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>27.260000000000002</v>
+        <v>80</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2310,17 +2349,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>35.5</v>
+        <v>169.19999999999999</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2336,17 +2375,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2362,17 +2401,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2388,17 +2427,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>9</v>
+        <v>25.739999999999998</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2406,7 +2445,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2414,17 +2453,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>56</v>
+        <v>27.260000000000002</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="10">
-        <v>0.20000000000000001</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2432,7 +2471,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2440,13 +2479,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="10">
@@ -2458,7 +2497,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2466,17 +2505,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>75</v>
+        <v>35.5</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2484,7 +2523,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2492,17 +2531,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>69.5</v>
+        <v>119</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2510,7 +2549,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2518,17 +2557,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>86.5</v>
+        <v>30</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2536,7 +2575,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2544,13 +2583,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="10">
@@ -2562,7 +2601,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2570,17 +2609,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="10">
-        <v>1</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2588,7 +2627,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2596,13 +2635,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>38.5</v>
+        <v>43</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="10">
@@ -2614,7 +2653,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2622,17 +2661,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2640,7 +2679,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2648,17 +2687,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>24</v>
+        <v>69.5</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="10">
-        <v>0.40000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2674,17 +2713,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>70</v>
+        <v>86.5</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2700,17 +2739,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2726,17 +2765,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2752,13 +2791,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>55</v>
+        <v>38.5</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10">
@@ -2778,17 +2817,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2804,17 +2843,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="10">
-        <v>1</v>
+        <v>0.40000000000000002</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2822,7 +2861,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2830,13 +2869,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="10">
@@ -2848,7 +2887,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2856,13 +2895,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="10">
@@ -2874,7 +2913,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2882,17 +2921,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2900,7 +2939,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2908,17 +2947,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>24.960000000000001</v>
+        <v>114</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2926,7 +2965,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2934,17 +2973,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2952,7 +2991,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2960,17 +2999,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>33.840000000000003</v>
+        <v>0</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="10">
-        <v>0.33000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2978,7 +3017,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2986,13 +3025,13 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="10">
@@ -3004,7 +3043,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -3012,17 +3051,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="10">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -3038,17 +3077,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="10">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -3064,17 +3103,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="M79" s="9"/>
       <c r="N79" s="10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3082,7 +3121,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -3090,17 +3129,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="M80" s="9"/>
       <c r="N80" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3108,7 +3147,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3116,17 +3155,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>0</v>
+        <v>24.960000000000001</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="10">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3134,7 +3173,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3142,17 +3181,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3160,7 +3199,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3168,17 +3207,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>55</v>
+        <v>33.840000000000003</v>
       </c>
       <c r="M83" s="9"/>
       <c r="N83" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3186,7 +3225,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3194,17 +3233,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="10">
-        <v>0.17000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3212,7 +3251,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3220,17 +3259,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="10">
-        <v>1</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3238,7 +3277,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3246,17 +3285,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3264,7 +3303,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3272,17 +3311,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="M87" s="9"/>
       <c r="N87" s="10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3298,17 +3337,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M88" s="9"/>
       <c r="N88" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3324,17 +3363,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="M89" s="9"/>
       <c r="N89" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3356,7 +3395,7 @@
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="M90" s="9"/>
       <c r="N90" s="10">
@@ -3376,13 +3415,13 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="M91" s="9"/>
       <c r="N91" s="10">
@@ -3402,17 +3441,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="M92" s="9"/>
       <c r="N92" s="10">
-        <v>1</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3420,7 +3459,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3428,13 +3467,13 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="M93" s="9"/>
       <c r="N93" s="10">
@@ -3446,7 +3485,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3454,13 +3493,13 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="M94" s="9"/>
       <c r="N94" s="10">
@@ -3480,17 +3519,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>134.40000000000001</v>
+        <v>65</v>
       </c>
       <c r="M95" s="9"/>
       <c r="N95" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3512,7 +3551,7 @@
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="M96" s="9"/>
       <c r="N96" s="10">
@@ -3532,13 +3571,13 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="M97" s="9"/>
       <c r="N97" s="10">
@@ -3564,7 +3603,7 @@
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="M98" s="9"/>
       <c r="N98" s="10">
@@ -3584,13 +3623,13 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>245</v>
+        <v>94</v>
       </c>
       <c r="M99" s="9"/>
       <c r="N99" s="10">
@@ -3602,7 +3641,7 @@
         <v>97</v>
       </c>
       <c t="s" r="B100" s="7">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -3610,13 +3649,13 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="M100" s="9"/>
       <c r="N100" s="10">
@@ -3628,7 +3667,7 @@
         <v>98</v>
       </c>
       <c t="s" r="B101" s="7">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3636,17 +3675,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="M101" s="9"/>
       <c r="N101" s="10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3654,7 +3693,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B102" s="7">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3662,17 +3701,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>168</v>
+        <v>86.5</v>
       </c>
       <c r="M102" s="9"/>
       <c r="N102" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3680,7 +3719,7 @@
         <v>100</v>
       </c>
       <c t="s" r="B103" s="7">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3688,17 +3727,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>74.689999999999998</v>
+        <v>26</v>
       </c>
       <c r="M103" s="9"/>
       <c r="N103" s="10">
-        <v>0.20000000000000001</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3714,17 +3753,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>128</v>
+        <v>134.40000000000001</v>
       </c>
       <c r="M104" s="9"/>
       <c r="N104" s="10">
-        <v>0.33000000000000002</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3740,13 +3779,13 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="M105" s="9"/>
       <c r="N105" s="10">
@@ -3766,17 +3805,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M106" s="9"/>
       <c r="N106" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3792,13 +3831,13 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>24.960000000000001</v>
+        <v>83</v>
       </c>
       <c r="M107" s="9"/>
       <c r="N107" s="10">
@@ -3818,17 +3857,17 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>17</v>
+        <v>245</v>
       </c>
       <c r="M108" s="9"/>
       <c r="N108" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" ht="24.75" customHeight="1">
@@ -3836,7 +3875,7 @@
         <v>106</v>
       </c>
       <c t="s" r="B109" s="7">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -3844,17 +3883,17 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="M109" s="9"/>
       <c r="N109" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
@@ -3870,7 +3909,7 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
@@ -3880,7 +3919,7 @@
       </c>
       <c r="M110" s="9"/>
       <c r="N110" s="10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -3896,17 +3935,17 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>102.59999999999999</v>
+        <v>168</v>
       </c>
       <c r="M111" s="9"/>
       <c r="N111" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -3922,17 +3961,17 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>168</v>
+        <v>74.689999999999998</v>
       </c>
       <c r="M112" s="9"/>
       <c r="N112" s="10">
-        <v>2</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="113" ht="25.5" customHeight="1">
@@ -3948,17 +3987,17 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="114" ht="24.75" customHeight="1">
@@ -3966,7 +4005,7 @@
         <v>111</v>
       </c>
       <c t="s" r="B114" s="7">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -3974,13 +4013,13 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="M114" s="9"/>
       <c r="N114" s="10">
@@ -3992,7 +4031,7 @@
         <v>112</v>
       </c>
       <c t="s" r="B115" s="7">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -4000,13 +4039,13 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M115" s="9"/>
       <c r="N115" s="10">
@@ -4018,7 +4057,7 @@
         <v>113</v>
       </c>
       <c t="s" r="B116" s="7">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -4026,17 +4065,17 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>148</v>
+        <v>28</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>98.400000000000006</v>
+        <v>18</v>
       </c>
       <c r="M116" s="9"/>
       <c r="N116" s="10">
-        <v>4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -4044,7 +4083,7 @@
         <v>114</v>
       </c>
       <c t="s" r="B117" s="7">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -4052,13 +4091,13 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>20</v>
+        <v>24.960000000000001</v>
       </c>
       <c r="M117" s="9"/>
       <c r="N117" s="10">
@@ -4070,7 +4109,7 @@
         <v>115</v>
       </c>
       <c t="s" r="B118" s="7">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -4078,17 +4117,17 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M118" s="9"/>
       <c r="N118" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="119" ht="24.75" customHeight="1">
@@ -4096,7 +4135,7 @@
         <v>116</v>
       </c>
       <c t="s" r="B119" s="7">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -4104,17 +4143,17 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="M119" s="9"/>
       <c r="N119" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" ht="25.5" customHeight="1">
@@ -4122,7 +4161,7 @@
         <v>117</v>
       </c>
       <c t="s" r="B120" s="7">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -4130,17 +4169,17 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>155</v>
+        <v>33</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="M120" s="9"/>
       <c r="N120" s="10">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" ht="24.75" customHeight="1">
@@ -4148,7 +4187,7 @@
         <v>118</v>
       </c>
       <c t="s" r="B121" s="7">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -4156,17 +4195,17 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>155</v>
+        <v>8</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>14</v>
+        <v>102.59999999999999</v>
       </c>
       <c r="M121" s="9"/>
       <c r="N121" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -4174,7 +4213,7 @@
         <v>119</v>
       </c>
       <c t="s" r="B122" s="7">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -4182,13 +4221,13 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="M122" s="9"/>
       <c r="N122" s="10">
@@ -4200,7 +4239,7 @@
         <v>120</v>
       </c>
       <c t="s" r="B123" s="7">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -4208,17 +4247,17 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>155</v>
+        <v>33</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="9">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="M123" s="9"/>
       <c r="N123" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" ht="24.75" customHeight="1">
@@ -4226,7 +4265,7 @@
         <v>121</v>
       </c>
       <c t="s" r="B124" s="7">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -4234,13 +4273,13 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c t="s" r="H124" s="8">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="9">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="M124" s="9"/>
       <c r="N124" s="10">
@@ -4252,7 +4291,7 @@
         <v>122</v>
       </c>
       <c t="s" r="B125" s="7">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -4260,13 +4299,13 @@
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c t="s" r="H125" s="8">
-        <v>155</v>
+        <v>33</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="9">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="M125" s="9"/>
       <c r="N125" s="10">
@@ -4278,7 +4317,7 @@
         <v>123</v>
       </c>
       <c t="s" r="B126" s="7">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -4286,17 +4325,17 @@
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c t="s" r="H126" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="9">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="M126" s="9"/>
       <c r="N126" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -4304,7 +4343,7 @@
         <v>124</v>
       </c>
       <c t="s" r="B127" s="7">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -4312,17 +4351,17 @@
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c t="s" r="H127" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="9">
-        <v>96</v>
+        <v>98.400000000000006</v>
       </c>
       <c r="M127" s="9"/>
       <c r="N127" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" ht="25.5" customHeight="1">
@@ -4330,7 +4369,7 @@
         <v>125</v>
       </c>
       <c t="s" r="B128" s="7">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -4338,17 +4377,17 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c t="s" r="H128" s="8">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
       <c r="L128" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M128" s="9"/>
       <c r="N128" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" ht="24.75" customHeight="1">
@@ -4356,7 +4395,7 @@
         <v>126</v>
       </c>
       <c t="s" r="B129" s="7">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -4364,13 +4403,13 @@
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c t="s" r="H129" s="8">
-        <v>70</v>
+        <v>162</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
       <c r="L129" s="9">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="M129" s="9"/>
       <c r="N129" s="10">
@@ -4382,7 +4421,7 @@
         <v>127</v>
       </c>
       <c t="s" r="B130" s="7">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -4390,17 +4429,17 @@
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c t="s" r="H130" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
       <c r="L130" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="M130" s="9"/>
       <c r="N130" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" ht="24.75" customHeight="1">
@@ -4408,7 +4447,7 @@
         <v>128</v>
       </c>
       <c t="s" r="B131" s="7">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -4416,17 +4455,17 @@
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c t="s" r="H131" s="8">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
       <c r="L131" s="9">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="M131" s="9"/>
       <c r="N131" s="10">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -4434,7 +4473,7 @@
         <v>129</v>
       </c>
       <c t="s" r="B132" s="7">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -4442,51 +4481,337 @@
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c t="s" r="H132" s="8">
-        <v>55</v>
+        <v>169</v>
       </c>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
       <c r="L132" s="9">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M132" s="9"/>
       <c r="N132" s="10">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" ht="25.5" customHeight="1">
-      <c r="K133" s="11">
-        <v>7388.9399999999996</v>
-      </c>
-      <c r="L133" s="11"/>
-      <c r="M133" s="11"/>
-      <c r="N133" s="11"/>
-    </row>
-    <row r="134" ht="17.25" customHeight="1">
-      <c t="s" r="A134" s="12">
+      <c r="A133" s="6">
+        <v>130</v>
+      </c>
+      <c t="s" r="B133" s="7">
         <v>170</v>
       </c>
-      <c r="B134" s="12"/>
-      <c r="C134" s="12"/>
-      <c r="D134" s="12"/>
-      <c r="E134" s="12"/>
-      <c t="s" r="F134" s="13">
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c t="s" r="H133" s="8">
+        <v>169</v>
+      </c>
+      <c r="I133" s="8"/>
+      <c r="J133" s="8"/>
+      <c r="K133" s="8"/>
+      <c r="L133" s="9">
+        <v>30</v>
+      </c>
+      <c r="M133" s="9"/>
+      <c r="N133" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" ht="24.75" customHeight="1">
+      <c r="A134" s="6">
+        <v>131</v>
+      </c>
+      <c t="s" r="B134" s="7">
         <v>171</v>
       </c>
-      <c r="G134" s="13"/>
-      <c r="H134" s="14"/>
-      <c t="s" r="I134" s="15">
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c t="s" r="H134" s="8">
+        <v>169</v>
+      </c>
+      <c r="I134" s="8"/>
+      <c r="J134" s="8"/>
+      <c r="K134" s="8"/>
+      <c r="L134" s="9">
+        <v>20</v>
+      </c>
+      <c r="M134" s="9"/>
+      <c r="N134" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" ht="25.5" customHeight="1">
+      <c r="A135" s="6">
+        <v>132</v>
+      </c>
+      <c t="s" r="B135" s="7">
         <v>172</v>
       </c>
-      <c r="J134" s="15"/>
-      <c r="K134" s="15"/>
-      <c r="L134" s="15"/>
-      <c r="M134" s="15"/>
-      <c r="N134" s="15"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
+      <c t="s" r="H135" s="8">
+        <v>8</v>
+      </c>
+      <c r="I135" s="8"/>
+      <c r="J135" s="8"/>
+      <c r="K135" s="8"/>
+      <c r="L135" s="9">
+        <v>63</v>
+      </c>
+      <c r="M135" s="9"/>
+      <c r="N135" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" ht="24.75" customHeight="1">
+      <c r="A136" s="6">
+        <v>133</v>
+      </c>
+      <c t="s" r="B136" s="7">
+        <v>173</v>
+      </c>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
+      <c t="s" r="H136" s="8">
+        <v>169</v>
+      </c>
+      <c r="I136" s="8"/>
+      <c r="J136" s="8"/>
+      <c r="K136" s="8"/>
+      <c r="L136" s="9">
+        <v>8</v>
+      </c>
+      <c r="M136" s="9"/>
+      <c r="N136" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="6">
+        <v>134</v>
+      </c>
+      <c t="s" r="B137" s="7">
+        <v>174</v>
+      </c>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
+      <c t="s" r="H137" s="8">
+        <v>8</v>
+      </c>
+      <c r="I137" s="8"/>
+      <c r="J137" s="8"/>
+      <c r="K137" s="8"/>
+      <c r="L137" s="9">
+        <v>108</v>
+      </c>
+      <c r="M137" s="9"/>
+      <c r="N137" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" ht="25.5" customHeight="1">
+      <c r="A138" s="6">
+        <v>135</v>
+      </c>
+      <c t="s" r="B138" s="7">
+        <v>175</v>
+      </c>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+      <c t="s" r="H138" s="8">
+        <v>176</v>
+      </c>
+      <c r="I138" s="8"/>
+      <c r="J138" s="8"/>
+      <c r="K138" s="8"/>
+      <c r="L138" s="9">
+        <v>96</v>
+      </c>
+      <c r="M138" s="9"/>
+      <c r="N138" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" ht="24.75" customHeight="1">
+      <c r="A139" s="6">
+        <v>136</v>
+      </c>
+      <c t="s" r="B139" s="7">
+        <v>177</v>
+      </c>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
+      <c t="s" r="H139" s="8">
+        <v>68</v>
+      </c>
+      <c r="I139" s="8"/>
+      <c r="J139" s="8"/>
+      <c r="K139" s="8"/>
+      <c r="L139" s="9">
+        <v>40</v>
+      </c>
+      <c r="M139" s="9"/>
+      <c r="N139" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" ht="25.5" customHeight="1">
+      <c r="A140" s="6">
+        <v>137</v>
+      </c>
+      <c t="s" r="B140" s="7">
+        <v>178</v>
+      </c>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+      <c t="s" r="H140" s="8">
+        <v>77</v>
+      </c>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
+      <c r="K140" s="8"/>
+      <c r="L140" s="9">
+        <v>17</v>
+      </c>
+      <c r="M140" s="9"/>
+      <c r="N140" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" ht="24.75" customHeight="1">
+      <c r="A141" s="6">
+        <v>138</v>
+      </c>
+      <c t="s" r="B141" s="7">
+        <v>179</v>
+      </c>
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7"/>
+      <c r="G141" s="7"/>
+      <c t="s" r="H141" s="8">
+        <v>180</v>
+      </c>
+      <c r="I141" s="8"/>
+      <c r="J141" s="8"/>
+      <c r="K141" s="8"/>
+      <c r="L141" s="9">
+        <v>45</v>
+      </c>
+      <c r="M141" s="9"/>
+      <c r="N141" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="A142" s="6">
+        <v>139</v>
+      </c>
+      <c t="s" r="B142" s="7">
+        <v>181</v>
+      </c>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
+      <c t="s" r="H142" s="8">
+        <v>160</v>
+      </c>
+      <c r="I142" s="8"/>
+      <c r="J142" s="8"/>
+      <c r="K142" s="8"/>
+      <c r="L142" s="9">
+        <v>35</v>
+      </c>
+      <c r="M142" s="9"/>
+      <c r="N142" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" ht="25.5" customHeight="1">
+      <c r="A143" s="6">
+        <v>140</v>
+      </c>
+      <c t="s" r="B143" s="7">
+        <v>182</v>
+      </c>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="7"/>
+      <c r="G143" s="7"/>
+      <c t="s" r="H143" s="8">
+        <v>62</v>
+      </c>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+      <c r="K143" s="8"/>
+      <c r="L143" s="9">
+        <v>30</v>
+      </c>
+      <c r="M143" s="9"/>
+      <c r="N143" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" ht="25.5" customHeight="1">
+      <c r="K144" s="11">
+        <v>8990.9400000000005</v>
+      </c>
+      <c r="L144" s="11"/>
+      <c r="M144" s="11"/>
+      <c r="N144" s="11"/>
+    </row>
+    <row r="145" ht="16.5" customHeight="1">
+      <c t="s" r="A145" s="12">
+        <v>183</v>
+      </c>
+      <c r="B145" s="12"/>
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
+      <c t="s" r="F145" s="13">
+        <v>184</v>
+      </c>
+      <c r="G145" s="13"/>
+      <c r="H145" s="14"/>
+      <c t="s" r="I145" s="15">
+        <v>185</v>
+      </c>
+      <c r="J145" s="15"/>
+      <c r="K145" s="15"/>
+      <c r="L145" s="15"/>
+      <c r="M145" s="15"/>
+      <c r="N145" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="398">
+  <mergeCells count="431">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4881,10 +5206,43 @@
     <mergeCell ref="B132:G132"/>
     <mergeCell ref="H132:K132"/>
     <mergeCell ref="L132:M132"/>
-    <mergeCell ref="K133:N133"/>
-    <mergeCell ref="A134:E134"/>
-    <mergeCell ref="F134:G134"/>
-    <mergeCell ref="I134:N134"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="B138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="B139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="B140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="B142:G142"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="B143:G143"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="L143:M143"/>
+    <mergeCell ref="K144:N144"/>
+    <mergeCell ref="A145:E145"/>
+    <mergeCell ref="F145:G145"/>
+    <mergeCell ref="I145:N145"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
